--- a/Team-Data/2014-15/4-14-2014-15.xlsx
+++ b/Team-Data/2014-15/4-14-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.481</v>
+        <v>0.475</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,10 +933,10 @@
         <v>38.9</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -878,16 +945,16 @@
         <v>24.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
@@ -896,10 +963,10 @@
         <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
@@ -908,7 +975,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" t="n">
         <v>5.3</v>
@@ -920,25 +987,25 @@
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -965,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
@@ -1120,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1335,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1696,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>20</v>
@@ -1705,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
         <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.613</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,16 +1843,16 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N8" t="n">
         <v>0.351</v>
@@ -1794,25 +1861,25 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1827,16 +1894,16 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1869,10 +1936,10 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP8" t="n">
         <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>18</v>
@@ -1881,7 +1948,7 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2075,10 +2142,10 @@
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
@@ -2236,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2248,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
@@ -2269,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="n">
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2513,16 +2580,16 @@
         <v>11.4</v>
       </c>
       <c r="M12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.716</v>
@@ -2540,7 +2607,7 @@
         <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
@@ -2549,31 +2616,31 @@
         <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,22 +2661,22 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
@@ -2627,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469</v>
+        <v>0.463</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
         <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.5</v>
@@ -2725,13 +2792,13 @@
         <v>14</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
         <v>21.2</v>
@@ -2746,25 +2813,25 @@
         <v>0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
         <v>18</v>
       </c>
-      <c r="AF13" t="n">
-        <v>17</v>
-      </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2785,16 +2852,16 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.71</v>
       </c>
       <c r="R14" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S14" t="n">
         <v>33.1</v>
@@ -2916,16 +2983,16 @@
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
         <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263</v>
+        <v>0.259</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3155,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>12</v>
@@ -3179,10 +3246,10 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
@@ -3304,13 +3371,13 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3334,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3346,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
@@ -3367,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3531,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,10 +3735,10 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,13 +3917,13 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3874,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3895,7 +3962,7 @@
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.538</v>
+        <v>0.543</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3969,40 +4036,40 @@
         <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.752</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,25 +4078,25 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
         <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -4053,16 +4120,16 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>18</v>
@@ -4071,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4214,7 +4281,7 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4411,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>23</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" t="n">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.90000000000001</v>
@@ -4515,7 +4582,7 @@
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.347</v>
@@ -4524,7 +4591,7 @@
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
         <v>0.732</v>
@@ -4533,25 +4600,25 @@
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.7</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
@@ -4608,16 +4675,16 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,19 +4827,19 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>0.476</v>
+        <v>0.481</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4870,10 +4937,10 @@
         <v>38.8</v>
       </c>
       <c r="J25" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>8.5</v>
@@ -4882,22 +4949,22 @@
         <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
         <v>16.4</v>
       </c>
       <c r="P25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
         <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T25" t="n">
         <v>43.2</v>
@@ -4927,7 +4994,7 @@
         <v>102.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -4936,19 +5003,19 @@
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4960,13 +5027,13 @@
         <v>10</v>
       </c>
       <c r="AN25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO25" t="n">
         <v>20</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
         <v>21</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>11</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5124,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5345,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.78</v>
@@ -5443,22 +5510,22 @@
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5473,19 +5540,19 @@
         <v>103.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5503,16 +5570,16 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5533,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5545,7 +5612,7 @@
         <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
         <v>48</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.593</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5613,19 +5680,19 @@
         <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
         <v>41.7</v>
@@ -5634,37 +5701,37 @@
         <v>20.7</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
         <v>18</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>18</v>
@@ -5915,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
         <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O31" t="n">
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T31" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U31" t="n">
         <v>24</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6007,7 +6074,7 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
         <v>20.9</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6058,7 +6125,7 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6067,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6088,13 +6155,13 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2014-15</t>
+          <t>2015-04-14</t>
         </is>
       </c>
     </row>
